--- a/plots/author_names_vs_identified_authors.xlsx
+++ b/plots/author_names_vs_identified_authors.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51888</v>
+        <v>55210</v>
       </c>
       <c r="C2">
-        <v>71240</v>
+        <v>76477</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3956</v>
+        <v>4688</v>
       </c>
       <c r="C3">
-        <v>5996</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,10 +424,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3994</v>
+        <v>4644</v>
       </c>
       <c r="C4">
-        <v>6167</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3905</v>
+        <v>4699</v>
       </c>
       <c r="C5">
-        <v>6259</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,10 +446,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3617</v>
+        <v>4323</v>
       </c>
       <c r="C6">
-        <v>5911</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -457,10 +457,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3481</v>
+        <v>3895</v>
       </c>
       <c r="C7">
-        <v>5800</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3343</v>
+        <v>3824</v>
       </c>
       <c r="C8">
-        <v>5742</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3284</v>
+        <v>3573</v>
       </c>
       <c r="C9">
-        <v>5900</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -490,10 +490,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3133</v>
+        <v>3453</v>
       </c>
       <c r="C10">
-        <v>5561</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -501,10 +501,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3245</v>
+        <v>3398</v>
       </c>
       <c r="C11">
-        <v>5987</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -512,10 +512,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2942</v>
+        <v>3125</v>
       </c>
       <c r="C12">
-        <v>5553</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -523,10 +523,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2880</v>
+        <v>2921</v>
       </c>
       <c r="C13">
-        <v>5466</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -534,10 +534,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2666</v>
+        <v>2779</v>
       </c>
       <c r="C14">
-        <v>5146</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -545,10 +545,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2567</v>
+        <v>2607</v>
       </c>
       <c r="C15">
-        <v>5038</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -556,10 +556,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="C16">
-        <v>5030</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -567,10 +567,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2462</v>
+        <v>2481</v>
       </c>
       <c r="C17">
-        <v>4988</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -578,10 +578,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2507</v>
+        <v>2373</v>
       </c>
       <c r="C18">
-        <v>5145</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -589,10 +589,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2456</v>
+        <v>2264</v>
       </c>
       <c r="C19">
-        <v>4994</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -600,10 +600,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2375</v>
+        <v>2201</v>
       </c>
       <c r="C20">
-        <v>4939</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -611,10 +611,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2220</v>
+        <v>2075</v>
       </c>
       <c r="C21">
-        <v>4642</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -622,10 +622,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2217</v>
+        <v>1937</v>
       </c>
       <c r="C22">
-        <v>4546</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -633,10 +633,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2273</v>
+        <v>1864</v>
       </c>
       <c r="C23">
-        <v>4698</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -644,10 +644,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2184</v>
+        <v>1860</v>
       </c>
       <c r="C24">
-        <v>4565</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -655,10 +655,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2237</v>
+        <v>1857</v>
       </c>
       <c r="C25">
-        <v>4614</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -666,10 +666,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2053</v>
+        <v>1671</v>
       </c>
       <c r="C26">
-        <v>4255</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -677,10 +677,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2019</v>
+        <v>1647</v>
       </c>
       <c r="C27">
-        <v>4100</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -688,10 +688,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2098</v>
+        <v>1508</v>
       </c>
       <c r="C28">
-        <v>4279</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -699,10 +699,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2095</v>
+        <v>1579</v>
       </c>
       <c r="C29">
-        <v>4341</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -710,10 +710,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1742</v>
+        <v>1390</v>
       </c>
       <c r="C30">
-        <v>3613</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -721,10 +721,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1895</v>
+        <v>1322</v>
       </c>
       <c r="C31">
-        <v>3898</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -732,10 +732,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1794</v>
+        <v>1266</v>
       </c>
       <c r="C32">
-        <v>3661</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -743,10 +743,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1838</v>
+        <v>1319</v>
       </c>
       <c r="C33">
-        <v>3755</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -754,10 +754,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1836</v>
+        <v>1211</v>
       </c>
       <c r="C34">
-        <v>3685</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -765,10 +765,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1755</v>
+        <v>1146</v>
       </c>
       <c r="C35">
-        <v>3661</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -776,10 +776,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1361</v>
+        <v>1082</v>
       </c>
       <c r="C36">
-        <v>2855</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -787,10 +787,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1428</v>
+        <v>1043</v>
       </c>
       <c r="C37">
-        <v>3014</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -798,10 +798,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1475</v>
+        <v>986</v>
       </c>
       <c r="C38">
-        <v>2989</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -809,10 +809,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1304</v>
+        <v>859</v>
       </c>
       <c r="C39">
-        <v>2689</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -820,10 +820,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1292</v>
+        <v>751</v>
       </c>
       <c r="C40">
-        <v>2602</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -831,10 +831,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1181</v>
+        <v>778</v>
       </c>
       <c r="C41">
-        <v>2499</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -842,10 +842,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1188</v>
+        <v>767</v>
       </c>
       <c r="C42">
-        <v>2361</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -853,10 +853,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1235</v>
+        <v>681</v>
       </c>
       <c r="C43">
-        <v>2369</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -864,10 +864,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1127</v>
+        <v>617</v>
       </c>
       <c r="C44">
-        <v>2242</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -875,10 +875,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1162</v>
+        <v>566</v>
       </c>
       <c r="C45">
-        <v>2243</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -886,10 +886,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1007</v>
+        <v>518</v>
       </c>
       <c r="C46">
-        <v>1970</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -897,10 +897,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1184</v>
+        <v>510</v>
       </c>
       <c r="C47">
-        <v>2295</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -908,10 +908,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1036</v>
+        <v>497</v>
       </c>
       <c r="C48">
-        <v>2141</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -919,10 +919,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>898</v>
+        <v>458</v>
       </c>
       <c r="C49">
-        <v>1705</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -930,10 +930,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>964</v>
+        <v>404</v>
       </c>
       <c r="C50">
-        <v>1879</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -941,10 +941,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>846</v>
+        <v>436</v>
       </c>
       <c r="C51">
-        <v>1653</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -952,10 +952,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>783</v>
+        <v>354</v>
       </c>
       <c r="C52">
-        <v>1438</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -963,10 +963,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>857</v>
+        <v>380</v>
       </c>
       <c r="C53">
-        <v>1618</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -974,10 +974,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>756</v>
+        <v>300</v>
       </c>
       <c r="C54">
-        <v>1407</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -985,10 +985,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>798</v>
+        <v>312</v>
       </c>
       <c r="C55">
-        <v>1443</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -996,10 +996,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>669</v>
+        <v>263</v>
       </c>
       <c r="C56">
-        <v>1205</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>761</v>
+        <v>305</v>
       </c>
       <c r="C57">
-        <v>1471</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>634</v>
+        <v>287</v>
       </c>
       <c r="C58">
-        <v>1263</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>762</v>
+        <v>282</v>
       </c>
       <c r="C59">
-        <v>1426</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>581</v>
+        <v>228</v>
       </c>
       <c r="C60">
-        <v>1074</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>515</v>
+        <v>226</v>
       </c>
       <c r="C61">
-        <v>875</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1062,10 +1062,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>528</v>
+        <v>209</v>
       </c>
       <c r="C62">
-        <v>1024</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1073,10 +1073,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>534</v>
+        <v>195</v>
       </c>
       <c r="C63">
-        <v>906</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1084,10 +1084,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>653</v>
+        <v>217</v>
       </c>
       <c r="C64">
-        <v>1181</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1095,10 +1095,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>563</v>
+        <v>191</v>
       </c>
       <c r="C65">
-        <v>1028</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1106,10 +1106,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>510</v>
+        <v>193</v>
       </c>
       <c r="C66">
-        <v>865</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1117,10 +1117,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>508</v>
+        <v>184</v>
       </c>
       <c r="C67">
-        <v>1003</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1128,10 +1128,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>597</v>
+        <v>173</v>
       </c>
       <c r="C68">
-        <v>1116</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1139,10 +1139,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>433</v>
+        <v>145</v>
       </c>
       <c r="C69">
-        <v>791</v>
+        <v>961</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1150,10 +1150,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>440</v>
+        <v>142</v>
       </c>
       <c r="C70">
-        <v>839</v>
+        <v>939</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1161,10 +1161,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>339</v>
+        <v>138</v>
       </c>
       <c r="C71">
-        <v>610</v>
+        <v>907</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1172,10 +1172,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>542</v>
+        <v>192</v>
       </c>
       <c r="C72">
-        <v>949</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1183,10 +1183,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>517</v>
+        <v>186</v>
       </c>
       <c r="C73">
-        <v>939</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1194,10 +1194,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>591</v>
+        <v>270</v>
       </c>
       <c r="C74">
-        <v>1044</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1205,10 +1205,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>449</v>
+        <v>159</v>
       </c>
       <c r="C75">
-        <v>783</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1216,10 +1216,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>426</v>
+        <v>135</v>
       </c>
       <c r="C76">
-        <v>826</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1227,10 +1227,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>772</v>
+        <v>214</v>
       </c>
       <c r="C77">
-        <v>1452</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1238,10 +1238,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>577</v>
+        <v>198</v>
       </c>
       <c r="C78">
-        <v>1094</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1249,10 +1249,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>470</v>
+        <v>155</v>
       </c>
       <c r="C79">
-        <v>871</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1260,10 +1260,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>495</v>
+        <v>145</v>
       </c>
       <c r="C80">
-        <v>904</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>548</v>
+        <v>170</v>
       </c>
       <c r="C81">
-        <v>1059</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>477</v>
+        <v>138</v>
       </c>
       <c r="C82">
-        <v>868</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>540</v>
+        <v>142</v>
       </c>
       <c r="C83">
-        <v>1016</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>494</v>
+        <v>171</v>
       </c>
       <c r="C84">
-        <v>873</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1315,10 +1315,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>631</v>
+        <v>219</v>
       </c>
       <c r="C85">
-        <v>1196</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>567</v>
+        <v>122</v>
       </c>
       <c r="C86">
-        <v>1021</v>
+        <v>970</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>490</v>
+        <v>106</v>
       </c>
       <c r="C87">
-        <v>932</v>
+        <v>974</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="C88">
-        <v>692</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>369</v>
+        <v>154</v>
       </c>
       <c r="C89">
-        <v>708</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>419</v>
+        <v>112</v>
       </c>
       <c r="C90">
-        <v>783</v>
+        <v>903</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="C91">
-        <v>590</v>
+        <v>797</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>399</v>
+        <v>122</v>
       </c>
       <c r="C92">
-        <v>736</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="C93">
-        <v>471</v>
+        <v>793</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="C94">
-        <v>564</v>
+        <v>781</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>438</v>
+        <v>126</v>
       </c>
       <c r="C95">
-        <v>836</v>
+        <v>961</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="C96">
-        <v>457</v>
+        <v>541</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C97">
-        <v>267</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="C98">
-        <v>405</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="C99">
-        <v>494</v>
+        <v>727</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="C100">
-        <v>380</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="C101">
-        <v>340</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C102">
-        <v>298</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="C103">
-        <v>468</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1524,10 +1524,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C104">
-        <v>246</v>
+        <v>629</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C105">
-        <v>225</v>
+        <v>857</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="C106">
-        <v>424</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>258</v>
+        <v>68</v>
       </c>
       <c r="C107">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="C108">
-        <v>454</v>
+        <v>762</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="C109">
-        <v>230</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C110">
-        <v>220</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C111">
-        <v>320</v>
+        <v>656</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="C112">
-        <v>367</v>
+        <v>586</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="C113">
-        <v>296</v>
+        <v>773</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C114">
-        <v>249</v>
+        <v>746</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="C115">
-        <v>355</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C116">
-        <v>191</v>
+        <v>954</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="C117">
-        <v>345</v>
+        <v>699</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C118">
-        <v>269</v>
+        <v>709</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="C119">
-        <v>336</v>
+        <v>661</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="C120">
-        <v>251</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C121">
-        <v>205</v>
+        <v>636</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C122">
-        <v>252</v>
+        <v>529</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="C123">
-        <v>211</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="C124">
-        <v>264</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1755,10 +1755,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C125">
-        <v>147</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="C126">
-        <v>250</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1777,10 +1777,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="C127">
-        <v>272</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1788,10 +1788,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C128">
-        <v>27</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C129">
-        <v>168</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="C130">
-        <v>414</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C131">
-        <v>140</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C132">
-        <v>183</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C133">
-        <v>272</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>135</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C135">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="C136">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C137">
-        <v>199</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C138">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C139">
-        <v>171</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="C140">
-        <v>266</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C141">
-        <v>57</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C142">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1953,10 +1953,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C143">
-        <v>48</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1964,10 +1964,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C144">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1975,10 +1975,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C145">
-        <v>70</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C146">
-        <v>22</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1997,10 +1997,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C147">
-        <v>49</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2008,10 +2008,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C148">
-        <v>85</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C149">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2030,10 +2030,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C150">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C151">
-        <v>42</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C152">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C154">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>153</v>
       </c>
       <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
         <v>39</v>
-      </c>
-      <c r="C155">
-        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C156">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C157">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C159">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C161">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C162">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C164">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C166">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2228,10 +2228,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2250,10 +2250,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C170">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C171">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C172">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C174">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2305,10 +2305,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C175">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C176">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C177">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C178">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2349,10 +2349,76 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C179">
-        <v>35</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
